--- a/开发和测试过程数据统计对照表.xlsx
+++ b/开发和测试过程数据统计对照表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Study\北京航空航天大学\助教\其他\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Study\北京航空航天大学\助教\PPT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98F07A88-4493-49C2-AD13-EEA723E4E274}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C342272-248A-4F67-BF1F-0B8198D1A53C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="对照表" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
   <si>
     <t>Github账户</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -55,10 +55,6 @@
   </si>
   <si>
     <t>测试内容</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试问题</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -114,14 +110,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>测试过程遇到和发现的问题</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>参与人员</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>2019春软件工程嵌入式开发和测试过程数据统计对照表</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -135,10 +123,6 @@
   </si>
   <si>
     <t>任务说明</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>任务参与人</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -178,8 +162,32 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>测试文档中自定义的任务id</t>
+    <t>测试发现的问题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>有效代码行数（含新增和修改）</t>
     <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>commit有效代码行数，包含新增和修订的</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>自定义的任务id</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>参与人员（工作量比例）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>参与人员（工作量比例）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果有多人，也请给出每个人工作量比例</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -351,7 +359,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -471,6 +479,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -776,8 +787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P217"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -792,7 +803,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A1" s="36" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B1" s="36"/>
       <c r="C1" s="36"/>
@@ -808,7 +819,7 @@
     </row>
     <row r="3" spans="1:16" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A3" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" s="14"/>
       <c r="C3" s="9"/>
@@ -826,10 +837,10 @@
         <v>2</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E5" s="14" t="s">
         <v>3</v>
@@ -869,13 +880,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="69" x14ac:dyDescent="0.15">
@@ -883,13 +894,13 @@
         <v>1</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C10" s="35" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -4645,20 +4656,20 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="24.25" customWidth="1"/>
-    <col min="4" max="4" width="27.625" customWidth="1"/>
+    <col min="2" max="2" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A1" s="37" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B1" s="38"/>
       <c r="C1" s="38"/>
@@ -4666,16 +4677,16 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A2" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
@@ -4683,12 +4694,14 @@
         <v>1</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
-      <c r="D3" s="18"/>
+      <c r="D3" s="18" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="4" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A4" s="14"/>
@@ -4797,161 +4810,187 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{253E7184-E062-40F0-A428-AA79917B4B7E}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.75" style="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.75" style="10" customWidth="1"/>
-    <col min="3" max="4" width="22.125" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="10"/>
+    <col min="2" max="2" width="37" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.125" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.125" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A1" s="37" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" s="38"/>
       <c r="C1" s="38"/>
       <c r="D1" s="38"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E1" s="38"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="C2" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="14" t="s">
-        <v>14</v>
+      <c r="D2" s="14" t="s">
+        <v>34</v>
       </c>
-      <c r="D2" s="14" t="s">
-        <v>19</v>
+      <c r="E2" s="14" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="14">
         <v>1</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E3" s="18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="14"/>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E4" s="12"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="14"/>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E5" s="12"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="14"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E6" s="12"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="14"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E7" s="12"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="14"/>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E8" s="12"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="14"/>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E9" s="12"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="14"/>
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E10" s="12"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="14"/>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E11" s="12"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="14"/>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E12" s="12"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="14"/>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E13" s="12"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="14"/>
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E14" s="12"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" s="14"/>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E15" s="12"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" s="14"/>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E16" s="12"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" s="14"/>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E17" s="12"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" s="14"/>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E18" s="12"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" s="15"/>
       <c r="B19" s="13"/>
       <c r="C19" s="13"/>
       <c r="D19" s="13"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E19" s="13"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" s="16"/>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A1:E1"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4963,22 +5002,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{949143DB-CAF6-450C-9F5A-9FA2FAF2207A}">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.25" customWidth="1"/>
-    <col min="3" max="3" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.125" customWidth="1"/>
-    <col min="5" max="5" width="17.125" customWidth="1"/>
+    <col min="2" max="2" width="31.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A1" s="39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="39"/>
       <c r="C1" s="39"/>
@@ -4987,19 +5026,19 @@
     </row>
     <row r="2" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A2" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
@@ -5007,15 +5046,15 @@
         <v>1</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
-      <c r="D3" s="22" t="s">
-        <v>21</v>
+      <c r="D3" s="22"/>
+      <c r="E3" s="40" t="s">
+        <v>39</v>
       </c>
-      <c r="E3" s="23"/>
     </row>
     <row r="4" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A4" s="14"/>
@@ -5142,5 +5181,6 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/开发和测试过程数据统计对照表.xlsx
+++ b/开发和测试过程数据统计对照表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Study\北京航空航天大学\助教\PPT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C342272-248A-4F67-BF1F-0B8198D1A53C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6488B1F-7460-425D-B552-77E3936520C2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="46">
   <si>
     <t>Github账户</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -189,6 +189,30 @@
     <t>如果有多人，也请给出每个人工作量比例</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>贡献度分配表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>贡献度（%）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>贡献度计算依据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>贡献度数据追踪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>贡献度分配的计算依据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>追踪到其他几个数据表所列出的统计数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -291,7 +315,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -353,13 +377,50 @@
         <color auto="1"/>
       </diagonal>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -383,9 +444,6 @@
     </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -468,6 +526,9 @@
     <xf numFmtId="176" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -480,8 +541,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -785,19 +852,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P217"/>
+  <dimension ref="A1:P215"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.25" style="1" customWidth="1"/>
-    <col min="5" max="16" width="12.875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.25" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11" style="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5" style="1" customWidth="1"/>
+    <col min="13" max="13" width="11.25" style="1" customWidth="1"/>
+    <col min="14" max="16" width="12.875" style="1" customWidth="1"/>
     <col min="17" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
@@ -818,56 +894,56 @@
       <c r="D2" s="4"/>
     </row>
     <row r="3" spans="1:16" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
     </row>
     <row r="4" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
     </row>
     <row r="5" spans="1:16" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="25"/>
-      <c r="B5" s="14" t="s">
+      <c r="A5" s="24"/>
+      <c r="B5" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="13" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
     </row>
     <row r="7" spans="1:16" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
     </row>
     <row r="8" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="3"/>
@@ -876,30 +952,30 @@
       <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:16" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="13" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="69" x14ac:dyDescent="0.15">
-      <c r="A10" s="20">
+      <c r="A10" s="19">
         <v>1</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="35" t="s">
+      <c r="C10" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="35" t="s">
+      <c r="D10" s="34" t="s">
         <v>32</v>
       </c>
       <c r="E10" s="2"/>
@@ -916,10 +992,10 @@
       <c r="P10" s="2"/>
     </row>
     <row r="11" spans="1:16" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A11" s="20"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
+      <c r="A11" s="19"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -934,10 +1010,10 @@
       <c r="P11" s="2"/>
     </row>
     <row r="12" spans="1:16" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A12" s="20"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="28"/>
+      <c r="A12" s="19"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="27"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -952,10 +1028,10 @@
       <c r="P12" s="2"/>
     </row>
     <row r="13" spans="1:16" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A13" s="20"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
+      <c r="A13" s="19"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -970,10 +1046,10 @@
       <c r="P13" s="2"/>
     </row>
     <row r="14" spans="1:16" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A14" s="20"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
+      <c r="A14" s="19"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -988,10 +1064,10 @@
       <c r="P14" s="2"/>
     </row>
     <row r="15" spans="1:16" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A15" s="30"/>
-      <c r="B15" s="31"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="33"/>
+      <c r="A15" s="29"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="32"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -1042,12 +1118,6 @@
       <c r="P17" s="2"/>
     </row>
     <row r="18" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
@@ -1059,13 +1129,15 @@
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
     </row>
-    <row r="19" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
+    <row r="19" spans="1:16" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A19" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
@@ -1077,13 +1149,23 @@
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
     </row>
-    <row r="20" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
+    <row r="20" spans="1:16" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A20" s="24"/>
+      <c r="B20" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>4</v>
+      </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
@@ -1095,13 +1177,15 @@
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
     </row>
-    <row r="21" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
+    <row r="21" spans="1:16" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A21" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
@@ -1113,13 +1197,15 @@
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
     </row>
-    <row r="22" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
+    <row r="22" spans="1:16" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A22" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
@@ -1149,13 +1235,17 @@
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
     </row>
-    <row r="24" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
+    <row r="24" spans="1:16" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A24" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="42"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
@@ -1167,13 +1257,17 @@
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
     </row>
-    <row r="25" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
+    <row r="25" spans="1:16" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A25" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="41"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="42"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
@@ -4605,45 +4699,12 @@
       <c r="O215" s="2"/>
       <c r="P215" s="2"/>
     </row>
-    <row r="216" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A216" s="2"/>
-      <c r="B216" s="2"/>
-      <c r="C216" s="2"/>
-      <c r="D216" s="2"/>
-      <c r="E216" s="2"/>
-      <c r="F216" s="2"/>
-      <c r="G216" s="2"/>
-      <c r="H216" s="2"/>
-      <c r="I216" s="2"/>
-      <c r="J216" s="2"/>
-      <c r="K216" s="2"/>
-      <c r="L216" s="2"/>
-      <c r="M216" s="2"/>
-      <c r="N216" s="2"/>
-      <c r="O216" s="2"/>
-      <c r="P216" s="2"/>
-    </row>
-    <row r="217" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A217" s="2"/>
-      <c r="B217" s="2"/>
-      <c r="C217" s="2"/>
-      <c r="D217" s="2"/>
-      <c r="E217" s="2"/>
-      <c r="F217" s="2"/>
-      <c r="G217" s="2"/>
-      <c r="H217" s="2"/>
-      <c r="I217" s="2"/>
-      <c r="J217" s="2"/>
-      <c r="K217" s="2"/>
-      <c r="L217" s="2"/>
-      <c r="M217" s="2"/>
-      <c r="N217" s="2"/>
-      <c r="O217" s="2"/>
-      <c r="P217" s="2"/>
-    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="4">
     <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="B25:F25"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4676,128 +4737,128 @@
       <c r="D1" s="38"/>
     </row>
     <row r="2" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="13" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="14">
+      <c r="A3" s="13">
         <v>1</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="17" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="14"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
+      <c r="A4" s="13"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
     </row>
     <row r="5" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="14"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
+      <c r="A5" s="13"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
     </row>
     <row r="6" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="14"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
     </row>
     <row r="7" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="14"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
+      <c r="A7" s="13"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
     </row>
     <row r="8" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="14"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
+      <c r="A8" s="13"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
     </row>
     <row r="9" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="14"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
     </row>
     <row r="10" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="14"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
+      <c r="A10" s="13"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
     </row>
     <row r="11" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A11" s="14"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
     </row>
     <row r="12" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A12" s="14"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
+      <c r="A12" s="13"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
     </row>
     <row r="13" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A13" s="14"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
+      <c r="A13" s="13"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
     </row>
     <row r="14" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A14" s="14"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
+      <c r="A14" s="13"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
     </row>
     <row r="15" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A15" s="14"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
+      <c r="A15" s="13"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
     </row>
     <row r="16" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A16" s="14"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
+      <c r="A16" s="13"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
     </row>
     <row r="17" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A17" s="14"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
     </row>
     <row r="18" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A18" s="14"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
+      <c r="A18" s="13"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
     </row>
     <row r="19" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A19" s="15"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
+      <c r="A19" s="14"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4818,12 +4879,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="5.75" style="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.125" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.125" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="10"/>
+    <col min="1" max="1" width="5.75" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="22.5" x14ac:dyDescent="0.15">
@@ -4836,157 +4897,157 @@
       <c r="E1" s="38"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="13" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="14">
+      <c r="A3" s="13">
         <v>1</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="17" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="14"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
+      <c r="A4" s="13"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="14"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
+      <c r="A5" s="13"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="14"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="14"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
+      <c r="A7" s="13"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" s="14"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
+      <c r="A8" s="13"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="14"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" s="14"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
+      <c r="A10" s="13"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" s="14"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" s="14"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
+      <c r="A12" s="13"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A13" s="14"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
+      <c r="A13" s="13"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A14" s="14"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
+      <c r="A14" s="13"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A15" s="14"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
+      <c r="A15" s="13"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A16" s="14"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
+      <c r="A16" s="13"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A17" s="14"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A18" s="14"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
+      <c r="A18" s="13"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A19" s="15"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
+      <c r="A19" s="14"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A20" s="16"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
+      <c r="A20" s="15"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5025,155 +5086,155 @@
       <c r="E1" s="39"/>
     </row>
     <row r="2" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="20" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="14">
+      <c r="A3" s="13">
         <v>1</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="40" t="s">
+      <c r="D3" s="21"/>
+      <c r="E3" s="35" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="14"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="23"/>
+      <c r="A4" s="13"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="22"/>
     </row>
     <row r="5" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="14"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="23"/>
+      <c r="A5" s="13"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="22"/>
     </row>
     <row r="6" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="14"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="23"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="22"/>
     </row>
     <row r="7" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="14"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="23"/>
+      <c r="A7" s="13"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="22"/>
     </row>
     <row r="8" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="14"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="23"/>
+      <c r="A8" s="13"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="22"/>
     </row>
     <row r="9" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="14"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="23"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="22"/>
     </row>
     <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="14"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="23"/>
+      <c r="A10" s="13"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="22"/>
     </row>
     <row r="11" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A11" s="14"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="23"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="22"/>
     </row>
     <row r="12" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A12" s="14"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="23"/>
+      <c r="A12" s="13"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="22"/>
     </row>
     <row r="13" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A13" s="14"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="23"/>
+      <c r="A13" s="13"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="22"/>
     </row>
     <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A14" s="14"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="23"/>
+      <c r="A14" s="13"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="22"/>
     </row>
     <row r="15" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A15" s="14"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="23"/>
+      <c r="A15" s="13"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="22"/>
     </row>
     <row r="16" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A16" s="14"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="23"/>
+      <c r="A16" s="13"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="22"/>
     </row>
     <row r="17" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A17" s="14"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="23"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="22"/>
     </row>
     <row r="18" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A18" s="14"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="23"/>
+      <c r="A18" s="13"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="22"/>
     </row>
     <row r="19" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A19" s="15"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="24"/>
+      <c r="A19" s="14"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="23"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A20" s="19"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
+      <c r="A20" s="18"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="1">
